--- a/sondage.xlsx
+++ b/sondage.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -577,9 +577,38 @@
         <v>100</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>nettoyant</v>
+      </c>
+      <c r="B7" t="str">
+        <v>10</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-04-04</v>
+      </c>
+      <c r="D7" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>6000</v>
+      </c>
+      <c r="F7" t="str">
+        <v>réduction</v>
+      </c>
+      <c r="G7" t="str">
+        <v>homme</v>
+      </c>
+      <c r="H7" t="str">
+        <v>25</v>
+      </c>
+      <c r="I7" t="str">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/sondage.xlsx
+++ b/sondage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
@@ -14,9 +14,11 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Arial"/>
-      <family val="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -27,35 +29,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -202,6 +194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -236,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -270,20 +264,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -405,7 +395,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -414,26 +443,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showRuler="1" showOutlineSymbols="0" defaultGridColor="1" showWhiteSpace="0" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
+    <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
-  <cols>
-    <col width="30.5898876404" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="7.4898876404" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="14.0898876404" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="10.7898876404" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="8.589887640400001" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="15.1898876404" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="8.589887640400001" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="5.2898876404" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="7.4898876404" bestFit="1" customWidth="1" min="9" max="9"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -483,7 +501,6 @@
       </c>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>